--- a/data/trans_orig/Q31A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,13</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,15</t>
+          <t>17,11</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,02; 18,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,05</t>
+          <t>16,62; 17,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,23; 20,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 18,21</t>
+          <t>17,38; 18,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,65; 18,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,35</t>
+          <t>16,93; 17,32</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>16,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,06</t>
+          <t>19,04</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,48</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 17,16</t>
+          <t>16,49; 17,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 20,19</t>
+          <t>18,2; 20,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,97</t>
+          <t>17,12; 17,89</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>16,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,92</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>17,5</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,59</t>
+          <t>16,5; 17,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,0; 20,33</t>
+          <t>17,99; 20,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 18,15</t>
+          <t>17,07; 18,11</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,81</t>
+          <t>18,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,11</t>
+          <t>19,1</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,27</t>
+          <t>18,41</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,86</t>
+          <t>17,84</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 18,55</t>
+          <t>17,59; 19,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,82</t>
+          <t>17,07; 17,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 19,86</t>
+          <t>18,45; 20,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 19,32</t>
+          <t>17,94; 19,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,79</t>
+          <t>17,96; 19,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,28</t>
+          <t>17,56; 18,24</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,1</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 18,96</t>
+          <t>17,26; 18,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,63</t>
+          <t>16,92; 17,64</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,32</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>16,75</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 16,7</t>
+          <t>16,18; 16,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,87</t>
+          <t>16,94; 17,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,0</t>
+          <t>16,55; 16,98</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,27</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,41</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,34</t>
+          <t>17,96</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,81; 18,8</t>
+          <t>17,72; 18,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 19,94</t>
+          <t>16,58; 19,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,01</t>
+          <t>16,84; 18,91</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,19</t>
+          <t>16,6; 17,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,14; 18,0</t>
+          <t>17,14; 17,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,29</t>
+          <t>16,8; 17,3</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18,25</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,47</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,3</t>
+          <t>16,98; 17,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,66</t>
+          <t>17,0; 18,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,72</t>
+          <t>17,08; 17,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q31A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 17,78</t>
+          <t>17,05; 17,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 18,2</t>
+          <t>16,98; 18,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,51; 17,58</t>
+          <t>16,46; 17,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,62; 17,04</t>
+          <t>16,63; 17,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,23</t>
+          <t>17,22; 18,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 20,28</t>
+          <t>18,3; 20,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 23,35</t>
+          <t>18,44; 22,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,38; 18,19</t>
+          <t>17,4; 18,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,8</t>
+          <t>17,21; 17,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 18,74</t>
+          <t>17,62; 18,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 19,27</t>
+          <t>17,46; 19,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,32</t>
+          <t>16,94; 17,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,2</t>
+          <t>16,7; 17,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,39</t>
+          <t>16,83; 17,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,4</t>
+          <t>16,78; 17,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 17,11</t>
+          <t>16,47; 17,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,95</t>
+          <t>17,26; 18,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,89</t>
+          <t>17,71; 18,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 18,75</t>
+          <t>17,74; 18,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 20,15</t>
+          <t>18,23; 20,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,49</t>
+          <t>16,9; 17,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,78</t>
+          <t>17,24; 17,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,64</t>
+          <t>17,13; 17,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 17,89</t>
+          <t>17,16; 17,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,09</t>
+          <t>16,57; 17,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 17,43</t>
+          <t>16,88; 17,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 16,97</t>
+          <t>16,46; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 17,57</t>
+          <t>16,5; 17,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,34</t>
+          <t>17,64; 18,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 19,87</t>
+          <t>18,05; 19,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,33; 18,45</t>
+          <t>17,37; 18,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,99; 20,28</t>
+          <t>17,98; 20,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,41</t>
+          <t>16,97; 17,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,17</t>
+          <t>17,46; 18,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,87; 17,41</t>
+          <t>16,88; 17,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,07; 18,11</t>
+          <t>17,08; 18,11</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 19,47</t>
+          <t>17,57; 19,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 19,25</t>
+          <t>18,01; 19,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,81</t>
+          <t>17,08; 17,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,45</t>
+          <t>17,64; 18,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 20,04</t>
+          <t>18,38; 19,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 22,31</t>
+          <t>20,06; 22,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,94; 19,32</t>
+          <t>17,91; 19,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,7</t>
+          <t>17,24; 17,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 19,4</t>
+          <t>17,94; 19,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 20,18</t>
+          <t>19,0; 20,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 18,24</t>
+          <t>17,56; 18,19</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,42</t>
+          <t>16,78; 17,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,41</t>
+          <t>16,34; 17,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 16,68</t>
+          <t>16,06; 16,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,52</t>
+          <t>16,72; 17,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 18,66</t>
+          <t>17,01; 18,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 18,86</t>
+          <t>16,63; 18,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,18; 19,51</t>
+          <t>16,19; 19,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 18,96</t>
+          <t>17,25; 19,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,67</t>
+          <t>16,99; 17,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,48</t>
+          <t>16,54; 17,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,2; 17,12</t>
+          <t>16,21; 17,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,64</t>
+          <t>16,91; 17,64</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,02; 17,55</t>
+          <t>17,05; 17,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,67</t>
+          <t>16,88; 17,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 16,92</t>
+          <t>16,37; 16,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,69</t>
+          <t>16,21; 16,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,63</t>
+          <t>17,59; 18,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,31; 19,63</t>
+          <t>18,3; 19,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,79; 19,68</t>
+          <t>17,8; 19,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,85</t>
+          <t>16,96; 17,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,81</t>
+          <t>17,31; 17,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,15</t>
+          <t>17,5; 18,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,77</t>
+          <t>16,99; 17,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 16,98</t>
+          <t>16,56; 17,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,48</t>
+          <t>16,97; 17,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 17,83</t>
+          <t>16,96; 17,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,24</t>
+          <t>16,78; 17,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,69</t>
+          <t>17,71; 18,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,67</t>
+          <t>17,83; 18,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,23; 19,35</t>
+          <t>18,22; 19,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,51; 18,21</t>
+          <t>17,53; 18,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,58; 19,9</t>
+          <t>16,54; 19,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,75</t>
+          <t>17,3; 17,76</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,17</t>
+          <t>17,5; 18,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,14; 17,54</t>
+          <t>17,13; 17,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,91</t>
+          <t>16,86; 18,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,22</t>
+          <t>16,81; 17,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,27; 17,71</t>
+          <t>17,29; 17,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,45; 16,78</t>
+          <t>16,45; 16,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,2</t>
+          <t>16,59; 17,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,21; 19,31</t>
+          <t>18,18; 19,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,39; 20,46</t>
+          <t>18,36; 20,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,77; 19,07</t>
+          <t>17,79; 19,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,14; 17,98</t>
+          <t>17,11; 18,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,33; 17,81</t>
+          <t>17,36; 17,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,74; 18,51</t>
+          <t>17,72; 18,49</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,56</t>
+          <t>17,01; 17,57</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,3</t>
+          <t>16,8; 17,29</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,5</t>
+          <t>17,21; 17,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,12</t>
+          <t>16,89; 17,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,27</t>
+          <t>16,99; 17,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,98</t>
+          <t>18,31; 18,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,64</t>
+          <t>16,99; 18,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,97</t>
+          <t>17,69; 17,97</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,73</t>
+          <t>17,45; 17,74</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,65</t>
+          <t>17,11; 17,65</t>
         </is>
       </c>
     </row>
